--- a/Sets-vervestacks.xlsx
+++ b/Sets-vervestacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids_syn_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78947B90-3EA8-4165-B106-13D6D0C8CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B18178-E1B5-4DDC-BFF1-ED8558027E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -1996,7 +1996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A31F25-1F87-49C7-BA40-02C9ADD8ABDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B50B737-1B2B-4BFD-82F6-52ABC5996FAB}">
   <dimension ref="B9:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
